--- a/isa.xlsx
+++ b/isa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brady/Development/bw8-systems/turbo-bw8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAD7869-32DD-D341-A170-E5B3237CFB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F5EA7B-0FE8-FC4D-AF4D-D39AA5CD0DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{CCB38D64-2FD0-B548-A8EC-7094A5A97CFB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="69">
   <si>
     <t>clc</t>
   </si>
@@ -188,9 +188,6 @@
     <t>dec16</t>
   </si>
   <si>
-    <t>jmp (rel, cond)</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -221,7 +218,31 @@
     <t>set carry</t>
   </si>
   <si>
-    <t>*can select lr w spares</t>
+    <t>ad[3] sel seg regs</t>
+  </si>
+  <si>
+    <t>jmp (pc-rel)</t>
+  </si>
+  <si>
+    <t>*could select lr w spares</t>
+  </si>
+  <si>
+    <t>lhs</t>
+  </si>
+  <si>
+    <t>rhs</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>12 bits</t>
+  </si>
+  <si>
+    <t>imm-mo</t>
   </si>
 </sst>
 </file>
@@ -400,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -435,7 +456,13 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,6 +571,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,15 +903,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC1F2E9-7FBC-D549-83E2-7D045573C781}">
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -932,7 +968,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -947,29 +983,35 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
       <c r="I2" s="10">
         <v>0</v>
       </c>
-      <c r="J2" s="15">
-        <v>0</v>
-      </c>
-      <c r="K2" s="15">
-        <v>0</v>
-      </c>
-      <c r="L2" s="15">
-        <v>0</v>
-      </c>
-      <c r="M2" s="15">
+      <c r="J2" s="17">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0</v>
+      </c>
+      <c r="M2" s="17">
         <v>0</v>
       </c>
       <c r="N2" s="6">
@@ -981,7 +1023,7 @@
       <c r="P2" s="6">
         <v>0</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="3"/>
@@ -998,45 +1040,51 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="21">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22">
-        <v>0</v>
-      </c>
-      <c r="M3" s="22">
-        <v>1</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>55</v>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -1051,29 +1099,35 @@
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="21">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="22">
-        <v>1</v>
-      </c>
-      <c r="M4" s="22">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0</v>
+      </c>
+      <c r="J4" s="24">
+        <v>0</v>
+      </c>
+      <c r="K4" s="24">
+        <v>0</v>
+      </c>
+      <c r="L4" s="24">
+        <v>0</v>
+      </c>
+      <c r="M4" s="24">
         <v>0</v>
       </c>
       <c r="N4" s="9">
@@ -1085,11 +1139,11 @@
       <c r="P4" s="9">
         <v>0</v>
       </c>
-      <c r="Q4" s="23" t="s">
+      <c r="Q4" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>59</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -1104,30 +1158,36 @@
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="21">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
-        <v>1</v>
-      </c>
-      <c r="M5" s="22">
-        <v>1</v>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24">
+        <v>0</v>
+      </c>
+      <c r="K5" s="24">
+        <v>0</v>
+      </c>
+      <c r="L5" s="24">
+        <v>0</v>
+      </c>
+      <c r="M5" s="24">
+        <v>0</v>
       </c>
       <c r="N5" s="9">
         <v>0</v>
@@ -1138,11 +1198,11 @@
       <c r="P5" s="9">
         <v>0</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="23" t="s">
-        <v>60</v>
+      <c r="R5" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -1157,29 +1217,35 @@
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="21">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22">
-        <v>1</v>
-      </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
-      <c r="M6" s="22">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0</v>
+      </c>
+      <c r="M6" s="24">
         <v>0</v>
       </c>
       <c r="N6" s="9">
@@ -1191,11 +1257,11 @@
       <c r="P6" s="9">
         <v>0</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="23" t="s">
-        <v>56</v>
+      <c r="R6" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -1210,30 +1276,36 @@
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="21">
-        <v>0</v>
-      </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22">
-        <v>1</v>
-      </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="22">
-        <v>1</v>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0</v>
+      </c>
+      <c r="K7" s="24">
+        <v>0</v>
+      </c>
+      <c r="L7" s="24">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
+        <v>0</v>
       </c>
       <c r="N7" s="9">
         <v>0</v>
@@ -1244,11 +1316,11 @@
       <c r="P7" s="9">
         <v>0</v>
       </c>
-      <c r="Q7" s="23" t="s">
+      <c r="Q7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="23" t="s">
-        <v>57</v>
+      <c r="R7" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1263,29 +1335,35 @@
       <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="51">
+        <v>1</v>
+      </c>
+      <c r="G8" s="51">
+        <v>1</v>
+      </c>
+      <c r="H8" s="51">
+        <v>0</v>
+      </c>
       <c r="I8" s="11">
         <v>0</v>
       </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
-        <v>1</v>
-      </c>
-      <c r="L8" s="12">
-        <v>1</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
         <v>0</v>
       </c>
       <c r="N8" s="7">
@@ -1297,11 +1375,11 @@
       <c r="P8" s="7">
         <v>0</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="Q8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="17" t="s">
-        <v>54</v>
+      <c r="R8" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1316,25 +1394,37 @@
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="52">
+        <v>1</v>
+      </c>
+      <c r="G9" s="52">
+        <v>1</v>
+      </c>
+      <c r="H9" s="52">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="53">
+        <v>0</v>
+      </c>
+      <c r="K9" s="53">
+        <v>0</v>
+      </c>
+      <c r="L9" s="53">
+        <v>0</v>
+      </c>
+      <c r="M9" s="53">
+        <v>0</v>
+      </c>
       <c r="N9" s="8">
         <v>0</v>
       </c>
@@ -1344,10 +1434,10 @@
       <c r="P9" s="8">
         <v>0</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="Q9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="14"/>
+      <c r="R9" s="20"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1361,47 +1451,48 @@
       <c r="AC9" s="2"/>
     </row>
     <row r="10" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="32" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="17" t="s">
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="18" t="s">
         <v>5</v>
       </c>
+      <c r="R10" s="3"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1415,33 +1506,33 @@
       <c r="AC10" s="2"/>
     </row>
     <row r="11" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="38" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="31" t="s">
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="11">
         <v>0</v>
       </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
         <v>1</v>
       </c>
       <c r="N11" s="7">
@@ -1453,11 +1544,11 @@
       <c r="P11" s="7">
         <v>1</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="R11" s="17" t="s">
-        <v>53</v>
+      <c r="R11" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -1472,25 +1563,25 @@
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="30" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="8">
         <v>0</v>
       </c>
@@ -1500,10 +1591,10 @@
       <c r="P12" s="8">
         <v>1</v>
       </c>
-      <c r="Q12" s="19" t="s">
+      <c r="Q12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="R12" s="14"/>
+      <c r="R12" s="16"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1517,33 +1608,33 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="36" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="10">
         <v>0</v>
       </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <v>0</v>
-      </c>
-      <c r="L13" s="15">
-        <v>0</v>
-      </c>
-      <c r="M13" s="15">
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
         <v>0</v>
       </c>
       <c r="N13" s="6">
@@ -1555,7 +1646,7 @@
       <c r="P13" s="6">
         <v>0</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="18" t="s">
         <v>39</v>
       </c>
       <c r="R13" s="3"/>
@@ -1572,33 +1663,33 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="32" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="11">
         <v>0</v>
       </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12">
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
         <v>1</v>
       </c>
       <c r="N14" s="7">
@@ -1610,7 +1701,7 @@
       <c r="P14" s="7">
         <v>0</v>
       </c>
-      <c r="Q14" s="17" t="s">
+      <c r="Q14" s="19" t="s">
         <v>40</v>
       </c>
       <c r="S14" s="2"/>
@@ -1626,33 +1717,33 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="32" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="11">
         <v>0</v>
       </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>1</v>
-      </c>
-      <c r="M15" s="12">
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>1</v>
+      </c>
+      <c r="M15" s="13">
         <v>0</v>
       </c>
       <c r="N15" s="7">
@@ -1664,7 +1755,7 @@
       <c r="P15" s="7">
         <v>0</v>
       </c>
-      <c r="Q15" s="17" t="s">
+      <c r="Q15" s="19" t="s">
         <v>41</v>
       </c>
       <c r="S15" s="2"/>
@@ -1680,33 +1771,33 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="32" t="s">
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
       <c r="I16" s="11">
         <v>0</v>
       </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
-      <c r="L16" s="12">
-        <v>1</v>
-      </c>
-      <c r="M16" s="12">
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
+        <v>1</v>
+      </c>
+      <c r="M16" s="13">
         <v>1</v>
       </c>
       <c r="N16" s="7">
@@ -1718,7 +1809,7 @@
       <c r="P16" s="7">
         <v>0</v>
       </c>
-      <c r="Q16" s="17" t="s">
+      <c r="Q16" s="19" t="s">
         <v>42</v>
       </c>
       <c r="S16" s="2"/>
@@ -1734,33 +1825,33 @@
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="35" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="32" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-      <c r="K17" s="12">
-        <v>1</v>
-      </c>
-      <c r="L17" s="12">
-        <v>0</v>
-      </c>
-      <c r="M17" s="12">
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13">
         <v>0</v>
       </c>
       <c r="N17" s="7">
@@ -1772,7 +1863,7 @@
       <c r="P17" s="7">
         <v>0</v>
       </c>
-      <c r="Q17" s="17" t="s">
+      <c r="Q17" s="19" t="s">
         <v>7</v>
       </c>
       <c r="S17" s="2"/>
@@ -1788,33 +1879,33 @@
       <c r="AC17" s="2"/>
     </row>
     <row r="18" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="32" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="11">
         <v>0</v>
       </c>
-      <c r="J18" s="12">
-        <v>0</v>
-      </c>
-      <c r="K18" s="12">
-        <v>1</v>
-      </c>
-      <c r="L18" s="12">
-        <v>0</v>
-      </c>
-      <c r="M18" s="12">
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <v>1</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
         <v>1</v>
       </c>
       <c r="N18" s="7">
@@ -1826,7 +1917,7 @@
       <c r="P18" s="7">
         <v>0</v>
       </c>
-      <c r="Q18" s="17" t="s">
+      <c r="Q18" s="19" t="s">
         <v>8</v>
       </c>
       <c r="S18" s="2"/>
@@ -1842,33 +1933,33 @@
       <c r="AC18" s="2"/>
     </row>
     <row r="19" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="35" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="32" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="11">
         <v>0</v>
       </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12">
-        <v>1</v>
-      </c>
-      <c r="L19" s="12">
-        <v>1</v>
-      </c>
-      <c r="M19" s="12">
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <v>1</v>
+      </c>
+      <c r="L19" s="13">
+        <v>1</v>
+      </c>
+      <c r="M19" s="13">
         <v>0</v>
       </c>
       <c r="N19" s="7">
@@ -1880,7 +1971,7 @@
       <c r="P19" s="7">
         <v>0</v>
       </c>
-      <c r="Q19" s="17" t="s">
+      <c r="Q19" s="19" t="s">
         <v>9</v>
       </c>
       <c r="S19" s="2"/>
@@ -1896,33 +1987,33 @@
       <c r="AC19" s="2"/>
     </row>
     <row r="20" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="35" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="32" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
       <c r="I20" s="11">
         <v>0</v>
       </c>
-      <c r="J20" s="12">
-        <v>0</v>
-      </c>
-      <c r="K20" s="12">
-        <v>1</v>
-      </c>
-      <c r="L20" s="12">
-        <v>1</v>
-      </c>
-      <c r="M20" s="12">
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13">
+        <v>1</v>
+      </c>
+      <c r="M20" s="13">
         <v>1</v>
       </c>
       <c r="N20" s="7">
@@ -1934,7 +2025,7 @@
       <c r="P20" s="7">
         <v>0</v>
       </c>
-      <c r="Q20" s="17" t="s">
+      <c r="Q20" s="19" t="s">
         <v>43</v>
       </c>
       <c r="S20" s="2"/>
@@ -1950,33 +2041,33 @@
       <c r="AC20" s="2"/>
     </row>
     <row r="21" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="35" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="32" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="11">
         <v>0</v>
       </c>
-      <c r="J21" s="12">
-        <v>1</v>
-      </c>
-      <c r="K21" s="12">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0</v>
-      </c>
-      <c r="M21" s="12">
+      <c r="J21" s="13">
+        <v>1</v>
+      </c>
+      <c r="K21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0</v>
+      </c>
+      <c r="M21" s="13">
         <v>0</v>
       </c>
       <c r="N21" s="7">
@@ -1988,7 +2079,7 @@
       <c r="P21" s="7">
         <v>0</v>
       </c>
-      <c r="Q21" s="17" t="s">
+      <c r="Q21" s="19" t="s">
         <v>12</v>
       </c>
       <c r="S21" s="2"/>
@@ -2004,33 +2095,33 @@
       <c r="AC21" s="2"/>
     </row>
     <row r="22" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="32" t="s">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
       <c r="I22" s="11">
         <v>0</v>
       </c>
-      <c r="J22" s="12">
-        <v>1</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0</v>
-      </c>
-      <c r="M22" s="12">
+      <c r="J22" s="13">
+        <v>1</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
         <v>1</v>
       </c>
       <c r="N22" s="7">
@@ -2042,7 +2133,7 @@
       <c r="P22" s="7">
         <v>0</v>
       </c>
-      <c r="Q22" s="17" t="s">
+      <c r="Q22" s="19" t="s">
         <v>44</v>
       </c>
       <c r="S22" s="2"/>
@@ -2058,33 +2149,33 @@
       <c r="AC22" s="2"/>
     </row>
     <row r="23" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="32" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
       <c r="I23" s="11">
         <v>0</v>
       </c>
-      <c r="J23" s="12">
-        <v>1</v>
-      </c>
-      <c r="K23" s="12">
-        <v>0</v>
-      </c>
-      <c r="L23" s="12">
-        <v>1</v>
-      </c>
-      <c r="M23" s="12">
+      <c r="J23" s="13">
+        <v>1</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>1</v>
+      </c>
+      <c r="M23" s="13">
         <v>0</v>
       </c>
       <c r="N23" s="7">
@@ -2096,7 +2187,7 @@
       <c r="P23" s="7">
         <v>0</v>
       </c>
-      <c r="Q23" s="17" t="s">
+      <c r="Q23" s="19" t="s">
         <v>15</v>
       </c>
       <c r="S23" s="2"/>
@@ -2112,25 +2203,25 @@
       <c r="AC23" s="2"/>
     </row>
     <row r="24" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="13">
-        <v>0</v>
-      </c>
-      <c r="J24" s="30" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
       <c r="N24" s="8">
         <v>0</v>
       </c>
@@ -2140,14 +2231,18 @@
       <c r="P24" s="8">
         <v>0</v>
       </c>
-      <c r="Q24" s="19" t="s">
+      <c r="Q24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="R24" s="14"/>
+      <c r="R24" s="16"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
+      <c r="U24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V24" s="2">
+        <v>3</v>
+      </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
@@ -2157,31 +2252,31 @@
       <c r="AC24" s="2"/>
     </row>
     <row r="25" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="36" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
       <c r="I25" s="10">
         <v>0</v>
       </c>
-      <c r="J25" s="15">
-        <v>0</v>
-      </c>
-      <c r="K25" s="15">
-        <v>0</v>
-      </c>
-      <c r="L25" s="15">
-        <v>0</v>
-      </c>
-      <c r="M25" s="15">
+      <c r="J25" s="17">
+        <v>0</v>
+      </c>
+      <c r="K25" s="17">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="17">
         <v>0</v>
       </c>
       <c r="N25" s="6">
@@ -2193,14 +2288,18 @@
       <c r="P25" s="6">
         <v>1</v>
       </c>
-      <c r="Q25" s="16" t="s">
+      <c r="Q25" s="18" t="s">
         <v>10</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
+      <c r="U25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V25" s="2">
+        <v>3</v>
+      </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
@@ -2210,31 +2309,31 @@
       <c r="AC25" s="2"/>
     </row>
     <row r="26" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="32" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
       <c r="I26" s="11">
         <v>0</v>
       </c>
-      <c r="J26" s="12">
-        <v>0</v>
-      </c>
-      <c r="K26" s="12">
-        <v>0</v>
-      </c>
-      <c r="L26" s="12">
-        <v>0</v>
-      </c>
-      <c r="M26" s="12">
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13">
+        <v>0</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13">
         <v>1</v>
       </c>
       <c r="N26" s="7">
@@ -2246,13 +2345,17 @@
       <c r="P26" s="7">
         <v>1</v>
       </c>
-      <c r="Q26" s="17" t="s">
+      <c r="Q26" s="19" t="s">
         <v>11</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
+      <c r="U26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V26" s="2">
+        <v>3</v>
+      </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
@@ -2262,31 +2365,31 @@
       <c r="AC26" s="2"/>
     </row>
     <row r="27" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="32" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
       <c r="I27" s="11">
         <v>0</v>
       </c>
-      <c r="J27" s="12">
-        <v>0</v>
-      </c>
-      <c r="K27" s="12">
-        <v>0</v>
-      </c>
-      <c r="L27" s="12">
-        <v>1</v>
-      </c>
-      <c r="M27" s="12">
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <v>1</v>
+      </c>
+      <c r="M27" s="13">
         <v>0</v>
       </c>
       <c r="N27" s="7">
@@ -2298,13 +2401,17 @@
       <c r="P27" s="7">
         <v>1</v>
       </c>
-      <c r="Q27" s="17" t="s">
+      <c r="Q27" s="19" t="s">
         <v>13</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="U27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V27" s="2">
+        <v>3</v>
+      </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
@@ -2314,31 +2421,31 @@
       <c r="AC27" s="2"/>
     </row>
     <row r="28" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="32" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
       <c r="I28" s="11">
         <v>0</v>
       </c>
-      <c r="J28" s="12">
-        <v>0</v>
-      </c>
-      <c r="K28" s="12">
-        <v>0</v>
-      </c>
-      <c r="L28" s="12">
-        <v>1</v>
-      </c>
-      <c r="M28" s="12">
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <v>0</v>
+      </c>
+      <c r="L28" s="13">
+        <v>1</v>
+      </c>
+      <c r="M28" s="13">
         <v>1</v>
       </c>
       <c r="N28" s="7">
@@ -2350,13 +2457,15 @@
       <c r="P28" s="7">
         <v>1</v>
       </c>
-      <c r="Q28" s="20" t="s">
+      <c r="Q28" s="22" t="s">
         <v>48</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="1"/>
-      <c r="V28" s="2"/>
+      <c r="V28" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
@@ -2366,31 +2475,31 @@
       <c r="AC28" s="2"/>
     </row>
     <row r="29" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="31" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="11">
         <v>0</v>
       </c>
-      <c r="J29" s="12">
-        <v>0</v>
-      </c>
-      <c r="K29" s="12">
-        <v>1</v>
-      </c>
-      <c r="L29" s="12">
-        <v>0</v>
-      </c>
-      <c r="M29" s="12">
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <v>1</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13">
         <v>0</v>
       </c>
       <c r="N29" s="7">
@@ -2402,16 +2511,20 @@
       <c r="P29" s="7">
         <v>1</v>
       </c>
-      <c r="Q29" s="20" t="s">
+      <c r="Q29" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="R29" s="17" t="s">
-        <v>53</v>
+      <c r="R29" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
+      <c r="U29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V29" s="2">
+        <v>1</v>
+      </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
@@ -2421,31 +2534,31 @@
       <c r="AC29" s="2"/>
     </row>
     <row r="30" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="31" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="11">
         <v>0</v>
       </c>
-      <c r="J30" s="12">
-        <v>0</v>
-      </c>
-      <c r="K30" s="12">
-        <v>1</v>
-      </c>
-      <c r="L30" s="12">
-        <v>0</v>
-      </c>
-      <c r="M30" s="12">
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <v>1</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="13">
         <v>1</v>
       </c>
       <c r="N30" s="7">
@@ -2457,11 +2570,11 @@
       <c r="P30" s="7">
         <v>1</v>
       </c>
-      <c r="Q30" s="20" t="s">
+      <c r="Q30" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="R30" s="17" t="s">
-        <v>53</v>
+      <c r="R30" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
@@ -2476,33 +2589,33 @@
       <c r="AC30" s="2"/>
     </row>
     <row r="31" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="33" t="s">
+      <c r="B31" s="30"/>
+      <c r="C31" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="32" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
       <c r="I31" s="11">
         <v>0</v>
       </c>
-      <c r="J31" s="12">
-        <v>0</v>
-      </c>
-      <c r="K31" s="12">
-        <v>1</v>
-      </c>
-      <c r="L31" s="12">
-        <v>1</v>
-      </c>
-      <c r="M31" s="12">
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <v>1</v>
+      </c>
+      <c r="L31" s="13">
+        <v>1</v>
+      </c>
+      <c r="M31" s="13">
         <v>0</v>
       </c>
       <c r="N31" s="7">
@@ -2514,7 +2627,7 @@
       <c r="P31" s="7">
         <v>1</v>
       </c>
-      <c r="Q31" s="17" t="s">
+      <c r="Q31" s="19" t="s">
         <v>24</v>
       </c>
       <c r="S31" s="2"/>
@@ -2530,33 +2643,33 @@
       <c r="AC31" s="2"/>
     </row>
     <row r="32" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="33" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="32" t="s">
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
       <c r="I32" s="11">
         <v>0</v>
       </c>
-      <c r="J32" s="12">
-        <v>0</v>
-      </c>
-      <c r="K32" s="12">
-        <v>1</v>
-      </c>
-      <c r="L32" s="12">
-        <v>1</v>
-      </c>
-      <c r="M32" s="12">
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
+        <v>1</v>
+      </c>
+      <c r="L32" s="13">
+        <v>1</v>
+      </c>
+      <c r="M32" s="13">
         <v>1</v>
       </c>
       <c r="N32" s="7">
@@ -2568,7 +2681,7 @@
       <c r="P32" s="7">
         <v>1</v>
       </c>
-      <c r="Q32" s="17" t="s">
+      <c r="Q32" s="19" t="s">
         <v>26</v>
       </c>
       <c r="S32" s="2"/>
@@ -2584,33 +2697,33 @@
       <c r="AC32" s="2"/>
     </row>
     <row r="33" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="33" t="s">
+      <c r="B33" s="30"/>
+      <c r="C33" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="32" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
       <c r="I33" s="11">
         <v>0</v>
       </c>
-      <c r="J33" s="12">
-        <v>1</v>
-      </c>
-      <c r="K33" s="12">
-        <v>0</v>
-      </c>
-      <c r="L33" s="12">
-        <v>0</v>
-      </c>
-      <c r="M33" s="12">
+      <c r="J33" s="13">
+        <v>1</v>
+      </c>
+      <c r="K33" s="13">
+        <v>0</v>
+      </c>
+      <c r="L33" s="13">
+        <v>0</v>
+      </c>
+      <c r="M33" s="13">
         <v>0</v>
       </c>
       <c r="N33" s="7">
@@ -2622,7 +2735,7 @@
       <c r="P33" s="7">
         <v>1</v>
       </c>
-      <c r="Q33" s="17" t="s">
+      <c r="Q33" s="19" t="s">
         <v>27</v>
       </c>
       <c r="S33" s="2"/>
@@ -2638,31 +2751,31 @@
       <c r="AC33" s="2"/>
     </row>
     <row r="34" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="32" t="s">
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
       <c r="I34" s="11">
         <v>0</v>
       </c>
-      <c r="J34" s="12">
-        <v>1</v>
-      </c>
-      <c r="K34" s="12">
-        <v>0</v>
-      </c>
-      <c r="L34" s="12">
-        <v>0</v>
-      </c>
-      <c r="M34" s="12">
+      <c r="J34" s="13">
+        <v>1</v>
+      </c>
+      <c r="K34" s="13">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
+        <v>0</v>
+      </c>
+      <c r="M34" s="13">
         <v>1</v>
       </c>
       <c r="N34" s="7">
@@ -2674,7 +2787,7 @@
       <c r="P34" s="7">
         <v>1</v>
       </c>
-      <c r="Q34" s="17" t="s">
+      <c r="Q34" s="19" t="s">
         <v>21</v>
       </c>
       <c r="S34" s="2"/>
@@ -2690,31 +2803,31 @@
       <c r="AC34" s="2"/>
     </row>
     <row r="35" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="32" t="s">
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
       <c r="I35" s="11">
         <v>0</v>
       </c>
-      <c r="J35" s="12">
-        <v>1</v>
-      </c>
-      <c r="K35" s="12">
-        <v>0</v>
-      </c>
-      <c r="L35" s="12">
-        <v>1</v>
-      </c>
-      <c r="M35" s="12">
+      <c r="J35" s="13">
+        <v>1</v>
+      </c>
+      <c r="K35" s="13">
+        <v>0</v>
+      </c>
+      <c r="L35" s="13">
+        <v>1</v>
+      </c>
+      <c r="M35" s="13">
         <v>0</v>
       </c>
       <c r="N35" s="7">
@@ -2726,7 +2839,7 @@
       <c r="P35" s="7">
         <v>1</v>
       </c>
-      <c r="Q35" s="17" t="s">
+      <c r="Q35" s="19" t="s">
         <v>22</v>
       </c>
       <c r="S35" s="2"/>
@@ -2742,31 +2855,31 @@
       <c r="AC35" s="2"/>
     </row>
     <row r="36" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="32" t="s">
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
       <c r="I36" s="11">
         <v>0</v>
       </c>
-      <c r="J36" s="12">
-        <v>1</v>
-      </c>
-      <c r="K36" s="12">
-        <v>0</v>
-      </c>
-      <c r="L36" s="12">
-        <v>1</v>
-      </c>
-      <c r="M36" s="12">
+      <c r="J36" s="13">
+        <v>1</v>
+      </c>
+      <c r="K36" s="13">
+        <v>0</v>
+      </c>
+      <c r="L36" s="13">
+        <v>1</v>
+      </c>
+      <c r="M36" s="13">
         <v>1</v>
       </c>
       <c r="N36" s="7">
@@ -2778,7 +2891,7 @@
       <c r="P36" s="7">
         <v>1</v>
       </c>
-      <c r="Q36" s="17" t="s">
+      <c r="Q36" s="19" t="s">
         <v>23</v>
       </c>
       <c r="S36" s="2"/>
@@ -2794,25 +2907,25 @@
       <c r="AC36" s="2"/>
     </row>
     <row r="37" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="13">
-        <v>0</v>
-      </c>
-      <c r="J37" s="30" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
       <c r="N37" s="8">
         <v>0</v>
       </c>
@@ -2822,10 +2935,10 @@
       <c r="P37" s="8">
         <v>1</v>
       </c>
-      <c r="Q37" s="19" t="s">
+      <c r="Q37" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="14"/>
+      <c r="R37" s="16"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -2838,35 +2951,35 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
     </row>
-    <row r="38" spans="1:29" s="14" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+    <row r="38" spans="1:29" s="16" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="24">
-        <v>0</v>
-      </c>
-      <c r="J38" s="48" t="s">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="26">
+        <v>0</v>
+      </c>
+      <c r="J38" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="27" t="s">
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="25" t="s">
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="R38" s="26"/>
+      <c r="R38" s="28"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -2880,24 +2993,24 @@
       <c r="AC38" s="2"/>
     </row>
     <row r="39" spans="1:29" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
       <c r="I39" s="10">
         <v>1</v>
       </c>
-      <c r="J39" s="47" t="s">
+      <c r="J39" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
       <c r="M39" s="6">
         <v>0</v>
       </c>
@@ -2910,7 +3023,7 @@
       <c r="P39" s="6">
         <v>0</v>
       </c>
-      <c r="Q39" s="16" t="s">
+      <c r="Q39" s="18" t="s">
         <v>17</v>
       </c>
       <c r="S39" s="2"/>
@@ -2926,24 +3039,24 @@
       <c r="AC39" s="2"/>
     </row>
     <row r="40" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
       <c r="I40" s="11">
         <v>1</v>
       </c>
-      <c r="J40" s="44" t="s">
+      <c r="J40" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
       <c r="M40" s="7">
         <v>0</v>
       </c>
@@ -2956,7 +3069,7 @@
       <c r="P40" s="7">
         <v>1</v>
       </c>
-      <c r="Q40" s="17" t="s">
+      <c r="Q40" s="19" t="s">
         <v>18</v>
       </c>
       <c r="S40" s="2"/>
@@ -2972,24 +3085,24 @@
       <c r="AC40" s="2"/>
     </row>
     <row r="41" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
       <c r="I41" s="11">
         <v>1</v>
       </c>
-      <c r="J41" s="44" t="s">
+      <c r="J41" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
       <c r="M41" s="7">
         <v>0</v>
       </c>
@@ -3002,7 +3115,7 @@
       <c r="P41" s="7">
         <v>0</v>
       </c>
-      <c r="Q41" s="17" t="s">
+      <c r="Q41" s="19" t="s">
         <v>19</v>
       </c>
       <c r="S41" s="2"/>
@@ -3018,24 +3131,24 @@
       <c r="AC41" s="2"/>
     </row>
     <row r="42" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
       <c r="I42" s="11">
         <v>1</v>
       </c>
-      <c r="J42" s="44" t="s">
+      <c r="J42" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
       <c r="M42" s="7">
         <v>0</v>
       </c>
@@ -3048,7 +3161,7 @@
       <c r="P42" s="7">
         <v>1</v>
       </c>
-      <c r="Q42" s="17" t="s">
+      <c r="Q42" s="19" t="s">
         <v>20</v>
       </c>
       <c r="S42" s="2"/>
@@ -3064,26 +3177,26 @@
       <c r="AC42" s="2"/>
     </row>
     <row r="43" spans="1:29" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
       <c r="I43" s="11">
         <v>1</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K43" s="40" t="s">
+      <c r="K43" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="L43" s="40"/>
+      <c r="L43" s="42"/>
       <c r="M43" s="7">
         <v>0</v>
       </c>
@@ -3096,11 +3209,11 @@
       <c r="P43" s="7">
         <v>0</v>
       </c>
-      <c r="Q43" s="17" t="s">
+      <c r="Q43" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="R43" s="17" t="s">
-        <v>61</v>
+      <c r="R43" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
@@ -3115,24 +3228,24 @@
       <c r="AC43" s="2"/>
     </row>
     <row r="44" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
       <c r="I44" s="11">
         <v>1</v>
       </c>
-      <c r="J44" s="44" t="s">
+      <c r="J44" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
       <c r="M44" s="7">
         <v>0</v>
       </c>
@@ -3145,7 +3258,7 @@
       <c r="P44" s="7">
         <v>1</v>
       </c>
-      <c r="Q44" s="17" t="s">
+      <c r="Q44" s="19" t="s">
         <v>32</v>
       </c>
       <c r="S44" s="2"/>
@@ -3161,24 +3274,24 @@
       <c r="AC44" s="2"/>
     </row>
     <row r="45" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
       <c r="I45" s="10">
         <v>1</v>
       </c>
-      <c r="J45" s="47" t="s">
+      <c r="J45" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
       <c r="M45" s="6">
         <v>0</v>
       </c>
@@ -3191,7 +3304,7 @@
       <c r="P45" s="6">
         <v>0</v>
       </c>
-      <c r="Q45" s="16" t="s">
+      <c r="Q45" s="18" t="s">
         <v>33</v>
       </c>
       <c r="S45" s="2"/>
@@ -3207,24 +3320,24 @@
       <c r="AC45" s="2"/>
     </row>
     <row r="46" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
       <c r="I46" s="10">
         <v>1</v>
       </c>
-      <c r="J46" s="43" t="s">
+      <c r="J46" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
       <c r="M46" s="6">
         <v>0</v>
       </c>
@@ -3237,11 +3350,11 @@
       <c r="P46" s="6">
         <v>1</v>
       </c>
-      <c r="Q46" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="R46" s="20" t="s">
-        <v>52</v>
+      <c r="Q46" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="R46" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
@@ -3256,35 +3369,35 @@
       <c r="AC46" s="2"/>
     </row>
     <row r="47" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
       <c r="I47" s="11">
         <v>1</v>
       </c>
-      <c r="J47" s="44" t="s">
+      <c r="J47" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
       <c r="M47" s="7">
         <v>1</v>
       </c>
       <c r="N47" s="7">
         <v>0</v>
       </c>
-      <c r="O47" s="40" t="s">
+      <c r="O47" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="17" t="s">
+      <c r="P47" s="42"/>
+      <c r="Q47" s="19" t="s">
         <v>34</v>
       </c>
       <c r="S47" s="2"/>
@@ -3300,38 +3413,38 @@
       <c r="AC47" s="2"/>
     </row>
     <row r="48" spans="1:29" s="4" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="13">
-        <v>1</v>
-      </c>
-      <c r="J48" s="41" t="s">
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="15">
+        <v>1</v>
+      </c>
+      <c r="J48" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
       <c r="M48" s="8">
         <v>1</v>
       </c>
       <c r="N48" s="8">
         <v>1</v>
       </c>
-      <c r="O48" s="42" t="s">
+      <c r="O48" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="18" t="s">
+      <c r="P48" s="44"/>
+      <c r="Q48" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R48" s="14"/>
+      <c r="R48" s="16"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
@@ -3345,7 +3458,15 @@
       <c r="AC48" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
+  <mergeCells count="105">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="J48:L48"/>
     <mergeCell ref="O48:P48"/>
     <mergeCell ref="J46:L46"/>
@@ -3376,8 +3497,6 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A2:H2"/>
     <mergeCell ref="O47:P47"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:E22"/>
@@ -3429,13 +3548,6 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="N38:P38"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="J9:M9"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="A30:E30"/>
